--- a/Database/Test-list.xlsx
+++ b/Database/Test-list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USTH_SUBJECTS\B3\GroupProject\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49B327C-6DBA-4BEA-A9C5-79DACD896087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA4BE0D-1B24-4C68-9F8E-43AAE94D8205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4236" yWindow="2916" windowWidth="17280" windowHeight="9420" xr2:uid="{8A69F82D-15C1-4C8A-BFAF-85FEEFB93A7E}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>00008</t>
   </si>
   <si>
-    <t>00009</t>
-  </si>
-  <si>
     <t>00002</t>
   </si>
   <si>
@@ -93,20 +90,23 @@
     <t>Nguyễn Trần Minh Quân</t>
   </si>
   <si>
-    <t>Đoàn Ngọc Linh</t>
-  </si>
-  <si>
     <t>Kẹo Xinh</t>
   </si>
   <si>
     <t>00010</t>
+  </si>
+  <si>
+    <t>aaaaaaaaa</t>
+  </si>
+  <si>
+    <t>00011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +121,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -513,7 +520,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -524,7 +531,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -538,7 +545,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -552,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -566,7 +573,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
@@ -580,7 +587,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
@@ -594,7 +601,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -608,10 +615,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -632,6 +639,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Database/Test-list.xlsx
+++ b/Database/Test-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USTH_SUBJECTS\B3\GroupProject\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA4BE0D-1B24-4C68-9F8E-43AAE94D8205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5129DD-8CA8-4933-B137-09FF4ED98EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4236" yWindow="2916" windowWidth="17280" windowHeight="9420" xr2:uid="{8A69F82D-15C1-4C8A-BFAF-85FEEFB93A7E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>STT</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>00011</t>
+  </si>
+  <si>
+    <t>bbbbbbbbb</t>
+  </si>
+  <si>
+    <t>22BI13387</t>
   </si>
 </sst>
 </file>
@@ -470,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA9A0B5-A6DF-4C52-B595-BFFF18E7B24A}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,6 +644,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Test-list.xlsx
+++ b/Database/Test-list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USTH_SUBJECTS\B3\GroupProject\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5129DD-8CA8-4933-B137-09FF4ED98EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8F0544-AF66-4019-A985-D482F097F88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4236" yWindow="2916" windowWidth="17280" windowHeight="9420" xr2:uid="{8A69F82D-15C1-4C8A-BFAF-85FEEFB93A7E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8A69F82D-15C1-4C8A-BFAF-85FEEFB93A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>STT</t>
   </si>
@@ -48,15 +48,9 @@
     <t>Đỗ Duy Minh</t>
   </si>
   <si>
-    <t>00001</t>
-  </si>
-  <si>
     <t>00003</t>
   </si>
   <si>
-    <t>00004</t>
-  </si>
-  <si>
     <t>00005</t>
   </si>
   <si>
@@ -66,12 +60,6 @@
     <t>00007</t>
   </si>
   <si>
-    <t>00008</t>
-  </si>
-  <si>
-    <t>00002</t>
-  </si>
-  <si>
     <t>Nguyễn Tiến Công</t>
   </si>
   <si>
@@ -106,6 +94,15 @@
   </si>
   <si>
     <t>22BI13387</t>
+  </si>
+  <si>
+    <t>22BI11111</t>
+  </si>
+  <si>
+    <t>22BI13375</t>
+  </si>
+  <si>
+    <t>22BI13049</t>
   </si>
 </sst>
 </file>
@@ -479,7 +476,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -526,7 +523,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -537,10 +534,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -551,10 +548,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -565,10 +562,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -579,10 +576,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -593,10 +590,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -607,10 +604,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -621,10 +618,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -635,10 +632,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -649,10 +646,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>

--- a/Database/Test-list.xlsx
+++ b/Database/Test-list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USTH_SUBJECTS\B3\GroupProject\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8F0544-AF66-4019-A985-D482F097F88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66819F0-AD37-4892-AF78-A40BCDE27F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8A69F82D-15C1-4C8A-BFAF-85FEEFB93A7E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>STT</t>
   </si>
@@ -96,13 +96,16 @@
     <t>22BI13387</t>
   </si>
   <si>
-    <t>22BI11111</t>
-  </si>
-  <si>
     <t>22BI13375</t>
   </si>
   <si>
     <t>22BI13049</t>
+  </si>
+  <si>
+    <t>22BI13280</t>
+  </si>
+  <si>
+    <t>22BI13355</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,7 +526,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -551,7 +554,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -607,7 +610,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -649,7 +652,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>

--- a/Database/Test-list.xlsx
+++ b/Database/Test-list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USTH_SUBJECTS\B3\GroupProject\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66819F0-AD37-4892-AF78-A40BCDE27F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F676662-30B1-4441-A372-7CC57BC329CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8A69F82D-15C1-4C8A-BFAF-85FEEFB93A7E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>STT</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>22BI13355</t>
+  </si>
+  <si>
+    <t>Hoàng Trung Sơn</t>
+  </si>
+  <si>
+    <t>22BI13394</t>
+  </si>
+  <si>
+    <t>ICT</t>
   </si>
 </sst>
 </file>
@@ -476,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA9A0B5-A6DF-4C52-B595-BFFF18E7B24A}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,6 +667,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Test-list.xlsx
+++ b/Database/Test-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USTH_SUBJECTS\B3\GroupProject\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F676662-30B1-4441-A372-7CC57BC329CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE9897B-BE15-4D19-A93B-D83A4E4E26C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8A69F82D-15C1-4C8A-BFAF-85FEEFB93A7E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>STT</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Đỗ Duy Minh</t>
   </si>
   <si>
-    <t>00003</t>
-  </si>
-  <si>
     <t>00005</t>
   </si>
   <si>
@@ -115,6 +112,15 @@
   </si>
   <si>
     <t>ICT</t>
+  </si>
+  <si>
+    <t>Lê Xuân Lộc</t>
+  </si>
+  <si>
+    <t>22BI13256</t>
+  </si>
+  <si>
+    <t>22BI13067</t>
   </si>
 </sst>
 </file>
@@ -485,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA9A0B5-A6DF-4C52-B595-BFFF18E7B24A}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,7 +527,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -535,7 +541,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -546,10 +552,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -560,10 +566,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -574,10 +580,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -588,10 +594,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -602,10 +608,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -616,10 +622,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -630,10 +636,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -644,10 +650,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -658,10 +664,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -672,13 +678,27 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
